--- a/pruebas.xlsx
+++ b/pruebas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>RF12</t>
   </si>
@@ -101,16 +101,31 @@
     <t>Positivo</t>
   </si>
   <si>
-    <t>idReservas:51</t>
-  </si>
-  <si>
     <t>Se eliminan las reservas del viajero</t>
   </si>
   <si>
-    <t>idRservas: 55,57</t>
-  </si>
-  <si>
     <t>No se pueden eliminar las reservas porque no son del mismo viajero</t>
+  </si>
+  <si>
+    <t>idReservas:51,10</t>
+  </si>
+  <si>
+    <t>RF15</t>
+  </si>
+  <si>
+    <t>idVuelo:17</t>
+  </si>
+  <si>
+    <t>Se elimina el vuelo, se eliminan las reservas que tiene ese vuelo y se asignan nuevas reservas a las viajeros</t>
+  </si>
+  <si>
+    <t>idReservas: 55,57</t>
+  </si>
+  <si>
+    <t>idVuelo:1</t>
+  </si>
+  <si>
+    <t>No se puede eliminar nada porque no se puede eliminar un vuelo que no existe</t>
   </si>
 </sst>
 </file>
@@ -462,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G26"/>
+  <dimension ref="A2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,34 +593,69 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-    </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
